--- a/_book/python-let-excel-fly-202007/04/案例08 按条件将一个工作表拆分为多个工作簿/产品统计表.xlsx
+++ b/_book/python-let-excel-fly-202007/04/案例08 按条件将一个工作表拆分为多个工作簿/产品统计表.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9686FD43-DEAC-4815-A3AF-0E042BC287A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF27C6B-05F6-499E-8B1C-10EB8864DDC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="统计表" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="钱包" sheetId="11" r:id="rId1"/>
+    <sheet name="行李箱" sheetId="10" r:id="rId2"/>
+    <sheet name="背包" sheetId="9" r:id="rId3"/>
+    <sheet name="手提包" sheetId="8" r:id="rId4"/>
+    <sheet name="单肩包" sheetId="7" r:id="rId5"/>
+    <sheet name="统计表" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,12 +74,37 @@
   <si>
     <t>手提包</t>
   </si>
+  <si>
+    <t>单号</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>成本价（元/个）</t>
+  </si>
+  <si>
+    <t>销售价（元/个）</t>
+  </si>
+  <si>
+    <t>销售数量（个）</t>
+  </si>
+  <si>
+    <t>产品成本（元）</t>
+  </si>
+  <si>
+    <t>销售收入（元）</t>
+  </si>
+  <si>
+    <t>销售利润（元）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
@@ -144,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +206,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,27 +486,1528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4633BA-70B4-4D25-91A4-A87AADD5C5F1}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6123003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11">
+        <v>90</v>
+      </c>
+      <c r="D2" s="11">
+        <v>187</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="11">
+        <v>93500</v>
+      </c>
+      <c r="H2" s="11">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6123007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11">
+        <v>90</v>
+      </c>
+      <c r="D3" s="11">
+        <v>187</v>
+      </c>
+      <c r="E3">
+        <v>780</v>
+      </c>
+      <c r="F3" s="11">
+        <v>70200</v>
+      </c>
+      <c r="G3" s="11">
+        <v>145860</v>
+      </c>
+      <c r="H3" s="11">
+        <v>75660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6123008</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11">
+        <v>187</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>90000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>187000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6123010</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11">
+        <v>187</v>
+      </c>
+      <c r="E5">
+        <v>360</v>
+      </c>
+      <c r="F5" s="11">
+        <v>32400</v>
+      </c>
+      <c r="G5" s="11">
+        <v>67320</v>
+      </c>
+      <c r="H5" s="11">
+        <v>34920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6123015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11">
+        <v>90</v>
+      </c>
+      <c r="D6" s="11">
+        <v>187</v>
+      </c>
+      <c r="E6">
+        <v>450</v>
+      </c>
+      <c r="F6" s="11">
+        <v>40500</v>
+      </c>
+      <c r="G6" s="11">
+        <v>84150</v>
+      </c>
+      <c r="H6" s="11">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6123025</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>90</v>
+      </c>
+      <c r="D7" s="11">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>700</v>
+      </c>
+      <c r="F7" s="11">
+        <v>63000</v>
+      </c>
+      <c r="G7" s="11">
+        <v>130900</v>
+      </c>
+      <c r="H7" s="11">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6123033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>90</v>
+      </c>
+      <c r="D8" s="11">
+        <v>187</v>
+      </c>
+      <c r="E8">
+        <v>480</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43200</v>
+      </c>
+      <c r="G8" s="11">
+        <v>89760</v>
+      </c>
+      <c r="H8" s="11">
+        <v>46560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6123036</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11">
+        <v>187</v>
+      </c>
+      <c r="E9">
+        <v>560</v>
+      </c>
+      <c r="F9" s="11">
+        <v>50400</v>
+      </c>
+      <c r="G9" s="11">
+        <v>104720</v>
+      </c>
+      <c r="H9" s="11">
+        <v>54320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A825958E-0BE4-4D0F-A14F-4432E6129B45}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6123002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>450</v>
+      </c>
+      <c r="F2" s="11">
+        <v>9900</v>
+      </c>
+      <c r="G2" s="11">
+        <v>39600</v>
+      </c>
+      <c r="H2" s="11">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6123006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>850</v>
+      </c>
+      <c r="F3" s="11">
+        <v>18700</v>
+      </c>
+      <c r="G3" s="11">
+        <v>74800</v>
+      </c>
+      <c r="H3" s="11">
+        <v>56100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6123012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>550</v>
+      </c>
+      <c r="F4" s="11">
+        <v>12100</v>
+      </c>
+      <c r="G4" s="11">
+        <v>48400</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6123018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>210</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4620</v>
+      </c>
+      <c r="G5" s="11">
+        <v>18480</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6123026</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>800</v>
+      </c>
+      <c r="F6" s="11">
+        <v>17600</v>
+      </c>
+      <c r="G6" s="11">
+        <v>70400</v>
+      </c>
+      <c r="H6" s="11">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6123028</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>660</v>
+      </c>
+      <c r="F7" s="11">
+        <v>14520</v>
+      </c>
+      <c r="G7" s="11">
+        <v>58080</v>
+      </c>
+      <c r="H7" s="11">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6123031</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5280</v>
+      </c>
+      <c r="G8" s="11">
+        <v>21120</v>
+      </c>
+      <c r="H8" s="11">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6123035</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9" s="11">
+        <v>13200</v>
+      </c>
+      <c r="G9" s="11">
+        <v>52800</v>
+      </c>
+      <c r="H9" s="11">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6123037</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10" s="11">
+        <v>13200</v>
+      </c>
+      <c r="G10" s="11">
+        <v>52800</v>
+      </c>
+      <c r="H10" s="11">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6123038</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>800</v>
+      </c>
+      <c r="F11" s="11">
+        <v>17600</v>
+      </c>
+      <c r="G11" s="11">
+        <v>70400</v>
+      </c>
+      <c r="H11" s="11">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6123039</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>700</v>
+      </c>
+      <c r="F12" s="11">
+        <v>15400</v>
+      </c>
+      <c r="G12" s="11">
+        <v>61600</v>
+      </c>
+      <c r="H12" s="11">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6123041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>870</v>
+      </c>
+      <c r="F13" s="11">
+        <v>19140</v>
+      </c>
+      <c r="G13" s="11">
+        <v>76560</v>
+      </c>
+      <c r="H13" s="11">
+        <v>57420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019E1F22-E474-475C-B18A-6EDD0D1E9E8C}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6123001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>600</v>
+      </c>
+      <c r="F2" s="11">
+        <v>9600</v>
+      </c>
+      <c r="G2" s="11">
+        <v>39000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6123004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>230</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3680</v>
+      </c>
+      <c r="G3" s="11">
+        <v>14950</v>
+      </c>
+      <c r="H3" s="11">
+        <v>11270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6123009</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>16250</v>
+      </c>
+      <c r="H4" s="11">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6123013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>690</v>
+      </c>
+      <c r="F5" s="11">
+        <v>11040</v>
+      </c>
+      <c r="G5" s="11">
+        <v>44850</v>
+      </c>
+      <c r="H5" s="11">
+        <v>33810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6123021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>550</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8800</v>
+      </c>
+      <c r="G6" s="11">
+        <v>35750</v>
+      </c>
+      <c r="H6" s="11">
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6123027</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>560</v>
+      </c>
+      <c r="F7" s="11">
+        <v>8960</v>
+      </c>
+      <c r="G7" s="11">
+        <v>36400</v>
+      </c>
+      <c r="H7" s="11">
+        <v>27440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6123032</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G8" s="11">
+        <v>9750</v>
+      </c>
+      <c r="H8" s="11">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6123034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6400</v>
+      </c>
+      <c r="G9" s="11">
+        <v>26000</v>
+      </c>
+      <c r="H9" s="11">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6123040</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>350</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5600</v>
+      </c>
+      <c r="G10" s="11">
+        <v>22750</v>
+      </c>
+      <c r="H10" s="11">
+        <v>17150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6123042</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>750</v>
+      </c>
+      <c r="F11" s="11">
+        <v>12000</v>
+      </c>
+      <c r="G11" s="11">
+        <v>48750</v>
+      </c>
+      <c r="H11" s="11">
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6123043</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>800</v>
+      </c>
+      <c r="F12" s="11">
+        <v>12800</v>
+      </c>
+      <c r="G12" s="11">
+        <v>52000</v>
+      </c>
+      <c r="H12" s="11">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6123047</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>630</v>
+      </c>
+      <c r="F13" s="11">
+        <v>10080</v>
+      </c>
+      <c r="G13" s="11">
+        <v>40950</v>
+      </c>
+      <c r="H13" s="11">
+        <v>30870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6123049</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>630</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10080</v>
+      </c>
+      <c r="G14" s="11">
+        <v>40950</v>
+      </c>
+      <c r="H14" s="11">
+        <v>30870</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F75CC3-65C7-4D81-8214-2193A8B7CC7A}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6123005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11">
+        <v>36</v>
+      </c>
+      <c r="D2" s="11">
+        <v>147</v>
+      </c>
+      <c r="E2">
+        <v>260</v>
+      </c>
+      <c r="F2" s="11">
+        <v>9360</v>
+      </c>
+      <c r="G2" s="11">
+        <v>38220</v>
+      </c>
+      <c r="H2" s="11">
+        <v>28860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6123016</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11">
+        <v>147</v>
+      </c>
+      <c r="E3">
+        <v>520</v>
+      </c>
+      <c r="F3" s="11">
+        <v>18720</v>
+      </c>
+      <c r="G3" s="11">
+        <v>76440</v>
+      </c>
+      <c r="H3" s="11">
+        <v>57720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6123019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11">
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>450</v>
+      </c>
+      <c r="F4" s="11">
+        <v>16200</v>
+      </c>
+      <c r="G4" s="11">
+        <v>66150</v>
+      </c>
+      <c r="H4" s="11">
+        <v>49950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6123023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>890</v>
+      </c>
+      <c r="F5" s="11">
+        <v>32040</v>
+      </c>
+      <c r="G5" s="11">
+        <v>130830</v>
+      </c>
+      <c r="H5" s="11">
+        <v>98790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6123029</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11">
+        <v>147</v>
+      </c>
+      <c r="E6">
+        <v>360</v>
+      </c>
+      <c r="F6" s="11">
+        <v>12960</v>
+      </c>
+      <c r="G6" s="11">
+        <v>52920</v>
+      </c>
+      <c r="H6" s="11">
+        <v>39960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6123044</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11">
+        <v>147</v>
+      </c>
+      <c r="E7">
+        <v>550</v>
+      </c>
+      <c r="F7" s="11">
+        <v>19800</v>
+      </c>
+      <c r="G7" s="11">
+        <v>80850</v>
+      </c>
+      <c r="H7" s="11">
+        <v>61050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6123048</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11">
+        <v>147</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="11">
+        <v>36750</v>
+      </c>
+      <c r="H8" s="11">
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6123050</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11">
+        <v>147</v>
+      </c>
+      <c r="E9">
+        <v>780</v>
+      </c>
+      <c r="F9" s="11">
+        <v>28080</v>
+      </c>
+      <c r="G9" s="11">
+        <v>114660</v>
+      </c>
+      <c r="H9" s="11">
+        <v>86580</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290BD52C-1B50-4401-BB7D-9300961C7059}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6123011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>58</v>
+      </c>
+      <c r="D2" s="11">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>630</v>
+      </c>
+      <c r="F2" s="11">
+        <v>36540</v>
+      </c>
+      <c r="G2" s="11">
+        <v>78120</v>
+      </c>
+      <c r="H2" s="11">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6123014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>580</v>
+      </c>
+      <c r="F3" s="11">
+        <v>33640</v>
+      </c>
+      <c r="G3" s="11">
+        <v>71920</v>
+      </c>
+      <c r="H3" s="11">
+        <v>38280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6123017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>58</v>
+      </c>
+      <c r="D4" s="11">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="11">
+        <v>11600</v>
+      </c>
+      <c r="G4" s="11">
+        <v>24800</v>
+      </c>
+      <c r="H4" s="11">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6123020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11">
+        <v>58</v>
+      </c>
+      <c r="D5" s="11">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <v>630</v>
+      </c>
+      <c r="F5" s="11">
+        <v>36540</v>
+      </c>
+      <c r="G5" s="11">
+        <v>78120</v>
+      </c>
+      <c r="H5" s="11">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6123022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>58</v>
+      </c>
+      <c r="D6" s="11">
+        <v>124</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6" s="11">
+        <v>34800</v>
+      </c>
+      <c r="G6" s="11">
+        <v>74400</v>
+      </c>
+      <c r="H6" s="11">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6123024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11">
+        <v>124</v>
+      </c>
+      <c r="E7">
+        <v>780</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45240</v>
+      </c>
+      <c r="G7" s="11">
+        <v>96720</v>
+      </c>
+      <c r="H7" s="11">
+        <v>51480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6123030</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11">
+        <v>124</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="11">
+        <v>11600</v>
+      </c>
+      <c r="G8" s="11">
+        <v>24800</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6123045</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>58</v>
+      </c>
+      <c r="D9" s="11">
+        <v>124</v>
+      </c>
+      <c r="E9">
+        <v>690</v>
+      </c>
+      <c r="F9" s="11">
+        <v>40020</v>
+      </c>
+      <c r="G9" s="11">
+        <v>85560</v>
+      </c>
+      <c r="H9" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6123046</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11">
+        <v>58</v>
+      </c>
+      <c r="D10" s="11">
+        <v>124</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" s="11">
+        <v>29000</v>
+      </c>
+      <c r="G10" s="11">
+        <v>62000</v>
+      </c>
+      <c r="H10" s="11">
+        <v>33000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -501,7 +2033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>6123001</v>
       </c>
@@ -530,7 +2062,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>6123002</v>
       </c>
@@ -559,7 +2091,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>6123003</v>
       </c>
@@ -588,7 +2120,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>6123004</v>
       </c>
@@ -617,7 +2149,7 @@
         <v>11270</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6123005</v>
       </c>
@@ -646,7 +2178,7 @@
         <v>28860</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6123006</v>
       </c>
@@ -675,7 +2207,7 @@
         <v>56100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6123007</v>
       </c>
@@ -704,7 +2236,7 @@
         <v>75660</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6123008</v>
       </c>
@@ -733,7 +2265,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6123009</v>
       </c>
@@ -762,7 +2294,7 @@
         <v>12250</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6123010</v>
       </c>
@@ -791,7 +2323,7 @@
         <v>34920</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6123011</v>
       </c>
@@ -820,7 +2352,7 @@
         <v>41580</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6123012</v>
       </c>
@@ -849,7 +2381,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>6123013</v>
       </c>
@@ -878,7 +2410,7 @@
         <v>33810</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6123014</v>
       </c>
@@ -907,7 +2439,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6123015</v>
       </c>
@@ -936,7 +2468,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>6123016</v>
       </c>
@@ -965,7 +2497,7 @@
         <v>57720</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>6123017</v>
       </c>
@@ -994,7 +2526,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>6123018</v>
       </c>
@@ -1023,7 +2555,7 @@
         <v>13860</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>6123019</v>
       </c>
@@ -1052,7 +2584,7 @@
         <v>49950</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6123020</v>
       </c>
@@ -1081,7 +2613,7 @@
         <v>41580</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6123021</v>
       </c>
@@ -1110,7 +2642,7 @@
         <v>26950</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>6123022</v>
       </c>
@@ -1139,7 +2671,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>6123023</v>
       </c>
@@ -1168,7 +2700,7 @@
         <v>98790</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>6123024</v>
       </c>
@@ -1197,7 +2729,7 @@
         <v>51480</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>6123025</v>
       </c>
@@ -1226,7 +2758,7 @@
         <v>67900</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>6123026</v>
       </c>
@@ -1255,7 +2787,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>6123027</v>
       </c>
@@ -1284,7 +2816,7 @@
         <v>27440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>6123028</v>
       </c>
@@ -1313,7 +2845,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>6123029</v>
       </c>
@@ -1342,7 +2874,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>6123030</v>
       </c>
@@ -1371,7 +2903,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>6123031</v>
       </c>
@@ -1400,7 +2932,7 @@
         <v>15840</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>6123032</v>
       </c>
@@ -1429,7 +2961,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>6123033</v>
       </c>
@@ -1458,7 +2990,7 @@
         <v>46560</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>6123034</v>
       </c>
@@ -1487,7 +3019,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>6123035</v>
       </c>
@@ -1516,7 +3048,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>6123036</v>
       </c>
@@ -1545,7 +3077,7 @@
         <v>54320</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>6123037</v>
       </c>
@@ -1574,7 +3106,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>6123038</v>
       </c>
@@ -1603,7 +3135,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>6123039</v>
       </c>
@@ -1632,7 +3164,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>6123040</v>
       </c>
@@ -1661,7 +3193,7 @@
         <v>17150</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>6123041</v>
       </c>
@@ -1690,7 +3222,7 @@
         <v>57420</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>6123042</v>
       </c>
@@ -1719,7 +3251,7 @@
         <v>36750</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6123043</v>
       </c>
@@ -1748,7 +3280,7 @@
         <v>39200</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>6123044</v>
       </c>
@@ -1777,7 +3309,7 @@
         <v>61050</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>6123045</v>
       </c>
@@ -1806,7 +3338,7 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>6123046</v>
       </c>
@@ -1835,7 +3367,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>6123047</v>
       </c>
@@ -1864,7 +3396,7 @@
         <v>30870</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>6123048</v>
       </c>
@@ -1893,7 +3425,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>6123049</v>
       </c>
@@ -1922,7 +3454,7 @@
         <v>30870</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>6123050</v>
       </c>
@@ -1951,47 +3483,47 @@
         <v>86580</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
@@ -2002,7 +3534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB30471F-A641-466B-9247-78BAA9BC6BD0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2010,7 +3542,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
